--- a/possibleFigure.xlsx
+++ b/possibleFigure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cococ\Documents\GitHub\LLMafia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1684B6-E631-44EA-816C-C919E53CAAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F663681-E12D-48CA-A3F1-BC74EC811E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1830" windowWidth="14355" windowHeight="15345" xr2:uid="{60BAAFF3-2C22-4FCB-995D-AB311944503B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60BAAFF3-2C22-4FCB-995D-AB311944503B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Human and LLM transcript dataset metrics</t>
   </si>
@@ -71,16 +71,13 @@
     <t>Ratio of 3 days or shorter games</t>
   </si>
   <si>
-    <t>Mean exchanges per game*</t>
-  </si>
-  <si>
-    <t>Mean words used per game*</t>
-  </si>
-  <si>
-    <t>Mean sentences used per game*</t>
-  </si>
-  <si>
-    <t>*Since the number of exhanges, sentences and words is heavily dependent on the length of the games, we instead report the statistics up to the maximum game length of day 4 for LLM Transcripts to better compare to the Human Transcripts, which has games that last until day 4.</t>
+    <t>Mean exchanges per game</t>
+  </si>
+  <si>
+    <t>Mean sentences used per game</t>
+  </si>
+  <si>
+    <t>Mean words used per game</t>
   </si>
 </sst>
 </file>
@@ -109,8 +106,9 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="8"/>
+      <sz val="7.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -124,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -132,15 +130,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4A747C-5232-4146-835F-72CEFE5721AC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -490,128 +549,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>9.73</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.73</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.09</v>
+      <c r="C9" s="2">
+        <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>15.6</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>211.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>